--- a/docs/Dockerhub_nodered_node-red.xlsx
+++ b/docs/Dockerhub_nodered_node-red.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondmouthaan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondmouthaan/Data/github/node-red-docker.git/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -220,44 +220,44 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,247 +544,247 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="7.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Dockerhub_nodered_node-red.xlsx
+++ b/docs/Dockerhub_nodered_node-red.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30580" yWindow="760" windowWidth="19480" windowHeight="26240" tabRatio="500"/>
+    <workbookView xWindow="28580" yWindow="760" windowWidth="19480" windowHeight="26240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>0.18.4</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>- no default pigiod node, manually install</t>
+  </si>
+  <si>
+    <t>non-exists</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,9 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -235,29 +236,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +546,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,12 +560,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -573,7 +580,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -587,203 +594,201 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="6" t="s">
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
